--- a/data/HospitalData.xlsx
+++ b/data/HospitalData.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3949747-CCA6-4E81-AA92-39A9CB0FBA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="병원정보" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>시/구</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연세대 세브란스병원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경기도 고양시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>부산 해운대구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>해운대로 875</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,18 +82,190 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어진동 535</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산대학교 병원</t>
+    <t>신촌세브란스병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사관로 59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순천향대학교서울병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반포대로 222 가톨릭중앙의료원 새병원 및 성의회관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가톨릭대학교 서울성모병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 용산구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 서초구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 은평구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진흥로 191</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 강동구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양재대로 1525</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올바른서울병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남부순환로 2584</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서초보건소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 안양시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동안구 시민대로 388</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평촌 서울나우병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 강남구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일원로 81 삼성의료원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성서울병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 성남시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분당구 구미로 173번길 82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분당서울대학교병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산광역시 남구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용호로 232번길 25-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산성모병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산광역시 해운대구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산광역시 서구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대신공원로 26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아대학교병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산광역시 북구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금곡대로 348</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산북구보건소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어진순환도로 877</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산대학교병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 파주시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후곡로 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파주시 보건소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 마포구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드컵로 212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마포보건소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 성동구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕십리로 222-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한양대학교병원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,6 +319,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2257088D-026F-4726-8A0E-D1E193A0E4F6}" name="표1" displayName="표1" ref="A1:D20" totalsRowShown="0">
+  <autoFilter ref="A1:D20" xr:uid="{2257088D-026F-4726-8A0E-D1E193A0E4F6}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{58053CDF-7813-445E-AFAF-0CD80F600EF3}" name="시/구"/>
+    <tableColumn id="2" xr3:uid="{99E354D6-71F2-48ED-804A-42A051B81F7A}" name="상세주소"/>
+    <tableColumn id="3" xr3:uid="{60A882C8-076B-41CE-8BFE-BC098A13704E}" name="병원명"/>
+    <tableColumn id="4" xr3:uid="{9625496F-80FF-4474-BC1C-45A967C63A2C}" name="백신재고수량"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,17 +596,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.625" customWidth="1"/>
-    <col min="2" max="3" width="40.625" customWidth="1"/>
+    <col min="2" max="2" width="50.625" customWidth="1"/>
+    <col min="3" max="3" width="40.625" customWidth="1"/>
     <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -454,7 +633,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>150</v>
@@ -462,13 +641,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
       </c>
       <c r="D3">
         <v>128</v>
@@ -476,13 +655,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
       </c>
       <c r="D4">
         <v>148</v>
@@ -490,13 +669,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
       </c>
       <c r="D5">
         <v>170</v>
@@ -504,21 +683,220 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/HospitalData.xlsx
+++ b/data/HospitalData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3949747-CCA6-4E81-AA92-39A9CB0FBA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444BBF63-07A6-4FF2-BD8E-A388BFEEDAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -266,6 +266,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -324,6 +325,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2257088D-026F-4726-8A0E-D1E193A0E4F6}" name="표1" displayName="표1" ref="A1:D20" totalsRowShown="0">
   <autoFilter ref="A1:D20" xr:uid="{2257088D-026F-4726-8A0E-D1E193A0E4F6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D20">
+    <sortCondition ref="A1:A20"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{58053CDF-7813-445E-AFAF-0CD80F600EF3}" name="시/구"/>
     <tableColumn id="2" xr3:uid="{99E354D6-71F2-48ED-804A-42A051B81F7A}" name="상세주소"/>
@@ -600,15 +604,15 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.625" customWidth="1"/>
-    <col min="2" max="2" width="50.625" customWidth="1"/>
-    <col min="3" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="30.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="50.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="40.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -621,274 +625,274 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="D1" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>150</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>128</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>148</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>170</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6">
         <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10">
-        <v>112</v>
+        <v>13</v>
+      </c>
+      <c r="D10" t="n">
+        <v>567.0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>97</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>57</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D13">
-        <v>131</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>88</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
         <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>65</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D20">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/HospitalData.xlsx
+++ b/data/HospitalData.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444BBF63-07A6-4FF2-BD8E-A388BFEEDAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2B305127-2780-480B-A5D5-514D221C63CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="29100" windowHeight="16500" xr2:uid="{90457A69-4BDC-49CE-BE80-FF38AED959DA}"/>
   </bookViews>
   <sheets>
     <sheet name="병원정보" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,265 +21,202 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>시/구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>상세주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>병원명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백신재고수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 고양시</t>
+  </si>
+  <si>
+    <t>일산서구 주화로 170</t>
+  </si>
+  <si>
+    <t>일산 백병원</t>
+  </si>
+  <si>
+    <t>경기도 성남시</t>
+  </si>
+  <si>
+    <t>분당구 구미로 173번길 82</t>
+  </si>
+  <si>
+    <t>분당서울대학교병원</t>
+  </si>
+  <si>
+    <t>경기도 안양시</t>
+  </si>
+  <si>
+    <t>동안구 시민대로 388</t>
+  </si>
+  <si>
+    <t>평촌 서울나우병원</t>
+  </si>
+  <si>
+    <t>경기도 파주시</t>
+  </si>
+  <si>
+    <t>후곡로 13</t>
+  </si>
+  <si>
+    <t>파주시 보건소</t>
+  </si>
+  <si>
+    <t>부산광역시 남구</t>
+  </si>
+  <si>
+    <t>용호로 232번길 25-14</t>
+  </si>
+  <si>
+    <t>부산성모병원</t>
+  </si>
+  <si>
+    <t>부산광역시 북구</t>
+  </si>
+  <si>
+    <t>금곡대로 348</t>
+  </si>
+  <si>
+    <t>부산북구보건소</t>
+  </si>
+  <si>
+    <t>부산광역시 서구</t>
+  </si>
+  <si>
+    <t>대신공원로 26</t>
+  </si>
+  <si>
+    <t>동아대학교병원</t>
+  </si>
+  <si>
+    <t>부산광역시 해운대구</t>
+  </si>
+  <si>
+    <t>해운대로 875</t>
+  </si>
+  <si>
+    <t>인제대 해운대 백병원</t>
+  </si>
+  <si>
+    <t>서울특별시 강남구</t>
+  </si>
+  <si>
+    <t>강남대로 485</t>
+  </si>
+  <si>
+    <t>강남병원</t>
+  </si>
+  <si>
+    <t>일원로 81 삼성의료원</t>
+  </si>
+  <si>
+    <t>삼성서울병원</t>
+  </si>
+  <si>
+    <t>서울특별시 강동구</t>
+  </si>
+  <si>
+    <t>양재대로 1525</t>
+  </si>
+  <si>
+    <t>올바른서울병원</t>
+  </si>
+  <si>
+    <t>서울특별시 마포구</t>
+  </si>
+  <si>
+    <t>월드컵로 212</t>
+  </si>
+  <si>
+    <t>마포보건소</t>
   </si>
   <si>
     <t>서울특별시 서대문구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>연세로 50-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기도 고양시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일산서구 주화로 170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일산 백병원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해운대로 875</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인제대 해운대 백병원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울특별시 강남구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강남대로 485</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강남병원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신촌세브란스병원</t>
+  </si>
+  <si>
+    <t>서울특별시 서초구</t>
+  </si>
+  <si>
+    <t>반포대로 222 가톨릭중앙의료원 새병원 및 성의회관</t>
+  </si>
+  <si>
+    <t>가톨릭대학교 서울성모병원</t>
+  </si>
+  <si>
+    <t>남부순환로 2584</t>
+  </si>
+  <si>
+    <t>서초보건소</t>
+  </si>
+  <si>
+    <t>서울특별시 성동구</t>
+  </si>
+  <si>
+    <t>왕십리로 222-1</t>
+  </si>
+  <si>
+    <t>한양대학교병원</t>
+  </si>
+  <si>
+    <t>서울특별시 용산구</t>
+  </si>
+  <si>
+    <t>대사관로 59</t>
+  </si>
+  <si>
+    <t>순천향대학교서울병원</t>
+  </si>
+  <si>
+    <t>서울특별시 은평구</t>
+  </si>
+  <si>
+    <t>진흥로 191</t>
+  </si>
+  <si>
+    <t>서울병원</t>
   </si>
   <si>
     <t>울산광역시 동구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신촌세브란스병원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사관로 59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순천향대학교서울병원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반포대로 222 가톨릭중앙의료원 새병원 및 성의회관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가톨릭대학교 서울성모병원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울특별시 용산구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울특별시 서초구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울특별시 은평구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진흥로 191</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울병원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울특별시 강동구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양재대로 1525</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>올바른서울병원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남부순환로 2584</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서초보건소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기도 안양시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동안구 시민대로 388</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평촌 서울나우병원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울특별시 강남구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일원로 81 삼성의료원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성서울병원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기도 성남시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분당구 구미로 173번길 82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분당서울대학교병원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산광역시 남구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용호로 232번길 25-14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산성모병원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산광역시 해운대구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산광역시 서구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대신공원로 26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동아대학교병원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산광역시 북구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금곡대로 348</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산북구보건소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>방어진순환도로 877</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>울산대학교병원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기도 파주시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후곡로 13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파주시 보건소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울특별시 마포구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월드컵로 212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마포보건소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울특별시 성동구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왕십리로 222-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한양대학교병원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -301,15 +239,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -323,23 +275,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2257088D-026F-4726-8A0E-D1E193A0E4F6}" name="표1" displayName="표1" ref="A1:D20" totalsRowShown="0">
-  <autoFilter ref="A1:D20" xr:uid="{2257088D-026F-4726-8A0E-D1E193A0E4F6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03ED688E-1D5A-469F-85B6-D8D7520FE3B1}" name="표1" displayName="표1" ref="A1:D20" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D20" xr:uid="{03ED688E-1D5A-469F-85B6-D8D7520FE3B1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D20">
     <sortCondition ref="A1:A20"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{58053CDF-7813-445E-AFAF-0CD80F600EF3}" name="시/구"/>
-    <tableColumn id="2" xr3:uid="{99E354D6-71F2-48ED-804A-42A051B81F7A}" name="상세주소"/>
-    <tableColumn id="3" xr3:uid="{60A882C8-076B-41CE-8BFE-BC098A13704E}" name="병원명"/>
-    <tableColumn id="4" xr3:uid="{9625496F-80FF-4474-BC1C-45A967C63A2C}" name="백신재고수량"/>
+    <tableColumn id="1" xr3:uid="{F88331EB-2200-490F-9821-9DCA1F158D61}" name="시/구"/>
+    <tableColumn id="2" xr3:uid="{D92CBF5E-202A-411B-A7C3-53FB3C2CE703}" name="상세주소"/>
+    <tableColumn id="3" xr3:uid="{4CAA6762-8694-4DF8-AD36-652B1734B7A6}" name="병원명"/>
+    <tableColumn id="4" xr3:uid="{3C82E96E-80D0-478C-962F-388A02DC2154}" name="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -355,7 +307,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -367,7 +319,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -384,7 +336,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -414,12 +366,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -449,6 +418,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -600,72 +586,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA4ED31-FCCC-47F9-8A92-EC503A9F96BD}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="50.625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="40.625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.625" collapsed="true"/>
+    <col min="1" max="1" width="40.625" customWidth="1"/>
+    <col min="2" max="2" width="60.625" customWidth="1"/>
+    <col min="3" max="3" width="40.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="n">
-        <v>33.0</v>
+      <c r="D1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D2">
         <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D3">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D4">
         <v>57</v>
@@ -673,13 +659,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>76</v>
@@ -687,13 +673,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>49</v>
@@ -701,13 +687,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>19</v>
@@ -715,13 +701,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>105</v>
@@ -729,13 +715,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>148</v>
@@ -743,27 +729,27 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="n">
-        <v>567.0</v>
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>131</v>
@@ -771,13 +757,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>112</v>
@@ -785,13 +771,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>65</v>
@@ -799,13 +785,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D14">
         <v>150</v>
@@ -813,13 +799,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>40</v>
@@ -827,13 +813,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>97</v>
@@ -841,13 +827,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D17">
         <v>101</v>
@@ -855,13 +841,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D18">
         <v>57</v>
@@ -869,13 +855,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D19">
         <v>144</v>
@@ -883,13 +869,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D20">
         <v>99</v>

--- a/data/HospitalData.xlsx
+++ b/data/HospitalData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2B305127-2780-480B-A5D5-514D221C63CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{89F918D9-3A07-4E9C-9E52-5584088958C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="29100" windowHeight="16500" xr2:uid="{90457A69-4BDC-49CE-BE80-FF38AED959DA}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="29130" windowHeight="16500" xr2:uid="{90457A69-4BDC-49CE-BE80-FF38AED959DA}"/>
   </bookViews>
   <sheets>
     <sheet name="병원정보" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -204,6 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -589,16 +590,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA4ED31-FCCC-47F9-8A92-EC503A9F96BD}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.625" customWidth="1"/>
-    <col min="2" max="2" width="60.625" customWidth="1"/>
-    <col min="3" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="40.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="60.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="40.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -625,8 +626,8 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>128</v>
+      <c r="D2" t="n">
+        <v>127.0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -654,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -682,7 +683,7 @@
         <v>17</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -696,7 +697,7 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
